--- a/testPedidos.xlsx
+++ b/testPedidos.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Tipo de producto</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Fecha de solicitud</t>
   </si>
   <si>
@@ -38,13 +35,22 @@
     <t>Estado</t>
   </si>
   <si>
+    <t>Precio total</t>
+  </si>
+  <si>
     <t>Precio cancelado</t>
   </si>
   <si>
     <t>Porcentaje descuento</t>
   </si>
   <si>
-    <t>torta</t>
+    <t>1-torta,2-queques,</t>
+  </si>
+  <si>
+    <t>05-10-2019</t>
+  </si>
+  <si>
+    <t>06-10-2019</t>
   </si>
   <si>
     <t>alberto hurtado</t>
@@ -59,7 +65,10 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t>kuchen manzana</t>
+    <t>1-kuchen manzana,</t>
+  </si>
+  <si>
+    <t>07-10-2019</t>
   </si>
   <si>
     <t>carmen ramirez</t>
@@ -71,7 +80,7 @@
     <t>9-47382938</t>
   </si>
   <si>
-    <t>trozo queque</t>
+    <t>1-trozo queque,</t>
   </si>
   <si>
     <t>marcelo muñoz</t>
@@ -83,7 +92,13 @@
     <t>9-62844758</t>
   </si>
   <si>
-    <t>pie de limon</t>
+    <t>1-pie de limon,</t>
+  </si>
+  <si>
+    <t>30-10-2019</t>
+  </si>
+  <si>
+    <t>31-10-2019</t>
   </si>
   <si>
     <t>pedro casillas</t>
@@ -95,7 +110,13 @@
     <t>9-37284547</t>
   </si>
   <si>
-    <t>tartaleta durazno</t>
+    <t>1-tartaleta durazno,</t>
+  </si>
+  <si>
+    <t>29-10-2019</t>
+  </si>
+  <si>
+    <t>30-11-2019</t>
   </si>
   <si>
     <t>lionel mauro</t>
@@ -191,26 +212,26 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>43743.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43744.0</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1000.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -221,28 +242,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>43744.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43745.0</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2000.0</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -253,28 +274,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>43745.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43745.0</v>
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3000.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -285,28 +306,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>43768.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43769.0</v>
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4900.0</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -317,28 +338,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>43767.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43799.0</v>
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5000.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>

--- a/testPedidos.xlsx
+++ b/testPedidos.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Tipo de producto</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Fecha de solicitud</t>
   </si>
   <si>
@@ -38,10 +35,97 @@
     <t>Estado</t>
   </si>
   <si>
+    <t>Precio total</t>
+  </si>
+  <si>
     <t>Precio cancelado</t>
   </si>
   <si>
     <t>Porcentaje descuento</t>
+  </si>
+  <si>
+    <t>2-queques,1-torta,</t>
+  </si>
+  <si>
+    <t>05-10-2019</t>
+  </si>
+  <si>
+    <t>06-10-2019</t>
+  </si>
+  <si>
+    <t>alberto hurtado</t>
+  </si>
+  <si>
+    <t>albhurt@gmail.com</t>
+  </si>
+  <si>
+    <t>9-48485930</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>1-kuchen manzana,</t>
+  </si>
+  <si>
+    <t>07-10-2019</t>
+  </si>
+  <si>
+    <t>carmen ramirez</t>
+  </si>
+  <si>
+    <t>cramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>9-47382938</t>
+  </si>
+  <si>
+    <t>1-trozo queque,</t>
+  </si>
+  <si>
+    <t>marcelo muñoz</t>
+  </si>
+  <si>
+    <t>mmuñoz@gmail.com</t>
+  </si>
+  <si>
+    <t>9-62844758</t>
+  </si>
+  <si>
+    <t>1-pie de limon,</t>
+  </si>
+  <si>
+    <t>30-10-2019</t>
+  </si>
+  <si>
+    <t>31-10-2019</t>
+  </si>
+  <si>
+    <t>pedro casillas</t>
+  </si>
+  <si>
+    <t>pedrosillas@gmai.com</t>
+  </si>
+  <si>
+    <t>9-37284547</t>
+  </si>
+  <si>
+    <t>1-tartaleta durazno,</t>
+  </si>
+  <si>
+    <t>29-10-2019</t>
+  </si>
+  <si>
+    <t>30-11-2019</t>
+  </si>
+  <si>
+    <t>lionel mauro</t>
+  </si>
+  <si>
+    <t>limau@gmail.com</t>
+  </si>
+  <si>
+    <t>9-38274654</t>
   </si>
 </sst>
 </file>
@@ -124,6 +208,166 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4900.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
